--- a/参数.xlsx
+++ b/参数.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>参数标题</t>
   </si>
@@ -33,22 +33,43 @@
     <t>班级</t>
   </si>
   <si>
+    <t>22统计111</t>
+  </si>
+  <si>
     <t>学号</t>
   </si>
   <si>
+    <t>20228102291</t>
+  </si>
+  <si>
     <t>学院</t>
   </si>
   <si>
+    <t>给我欣赏</t>
+  </si>
+  <si>
     <t>手机号</t>
   </si>
   <si>
+    <t>13135220666</t>
+  </si>
+  <si>
     <t>年级</t>
   </si>
   <si>
+    <t>2022级</t>
+  </si>
+  <si>
     <t>辅导员</t>
   </si>
   <si>
+    <t>列宁</t>
+  </si>
+  <si>
     <t>专业</t>
+  </si>
+  <si>
+    <t>人类发展史</t>
   </si>
   <si>
     <t>专业班级</t>
@@ -1028,7 +1049,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1057,60 +1078,60 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -1118,7 +1139,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>

--- a/参数.xlsx
+++ b/参数.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>参数标题</t>
   </si>
@@ -24,58 +24,70 @@
     <t>参数内容</t>
   </si>
   <si>
+    <t>请勿动标题，代码写死的</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
+    <t>小黑子</t>
+  </si>
+  <si>
+    <t>姓名等，值可以修改</t>
+  </si>
+  <si>
+    <t>班级</t>
+  </si>
+  <si>
+    <t>22统计111</t>
+  </si>
+  <si>
+    <t>学号</t>
+  </si>
+  <si>
+    <t>20228102291</t>
+  </si>
+  <si>
+    <t>学院</t>
+  </si>
+  <si>
+    <t>给我欣赏</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>13135220666</t>
+  </si>
+  <si>
+    <t>年级</t>
+  </si>
+  <si>
+    <t>2022级</t>
+  </si>
+  <si>
+    <t>辅导员</t>
+  </si>
+  <si>
+    <t>列宁</t>
+  </si>
+  <si>
+    <t>专业</t>
+  </si>
+  <si>
+    <t>人类发展史</t>
+  </si>
+  <si>
+    <t>专业班级</t>
+  </si>
+  <si>
+    <t>未找到</t>
+  </si>
+  <si>
     <t>阿南</t>
   </si>
   <si>
-    <t>班级</t>
-  </si>
-  <si>
-    <t>22统计111</t>
-  </si>
-  <si>
-    <t>学号</t>
-  </si>
-  <si>
-    <t>20228102291</t>
-  </si>
-  <si>
-    <t>学院</t>
-  </si>
-  <si>
-    <t>给我欣赏</t>
-  </si>
-  <si>
-    <t>手机号</t>
-  </si>
-  <si>
-    <t>13135220666</t>
-  </si>
-  <si>
-    <t>年级</t>
-  </si>
-  <si>
-    <t>2022级</t>
-  </si>
-  <si>
-    <t>辅导员</t>
-  </si>
-  <si>
-    <t>列宁</t>
-  </si>
-  <si>
-    <t>专业</t>
-  </si>
-  <si>
-    <t>人类发展史</t>
-  </si>
-  <si>
-    <t>专业班级</t>
-  </si>
-  <si>
-    <t>未找到</t>
+    <t>出现未知选项不会匹配</t>
   </si>
 </sst>
 </file>
@@ -88,10 +100,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -241,12 +260,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -549,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,36 +586,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -600,102 +622,108 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1046,103 +1074,113 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="25.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/参数.xlsx
+++ b/参数.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>参数标题</t>
   </si>
@@ -24,6 +24,12 @@
     <t>参数内容</t>
   </si>
   <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
     <t>请勿动标题，代码写死的</t>
   </si>
   <si>
@@ -33,7 +39,10 @@
     <t>小黑子</t>
   </si>
   <si>
-    <t>姓名等，值可以修改</t>
+    <t>启用奇偶数</t>
+  </si>
+  <si>
+    <t>奇数为1，偶数为0，不启用值为10</t>
   </si>
   <si>
     <t>班级</t>
@@ -79,6 +88,9 @@
   </si>
   <si>
     <t>专业班级</t>
+  </si>
+  <si>
+    <t>姓名等，参数内容、值可以修改</t>
   </si>
   <si>
     <t>未找到</t>
@@ -1074,113 +1086,129 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="25.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
